--- a/Team-Data/2012-13/3-25-2012-13.xlsx
+++ b/Team-Data/2012-13/3-25-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
         <v>39</v>
       </c>
       <c r="F2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" t="n">
-        <v>0.549</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -684,7 +751,7 @@
         <v>37.6</v>
       </c>
       <c r="J2" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.465</v>
@@ -693,31 +760,31 @@
         <v>8.9</v>
       </c>
       <c r="M2" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O2" t="n">
         <v>13.6</v>
       </c>
       <c r="P2" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.707</v>
+        <v>0.709</v>
       </c>
       <c r="R2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T2" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U2" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="V2" t="n">
         <v>15.1</v>
@@ -729,34 +796,34 @@
         <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z2" t="n">
         <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB2" t="n">
         <v>97.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -780,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
@@ -801,16 +868,16 @@
         <v>23</v>
       </c>
       <c r="AW2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
         <v>26</v>
@@ -819,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>14</v>
@@ -950,7 +1017,7 @@
         <v>9</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM3" t="n">
         <v>27</v>
@@ -977,10 +1044,10 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1120,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1138,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
@@ -1168,7 +1235,7 @@
         <v>23</v>
       </c>
       <c r="AX4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-9.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1302,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1362,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="BB5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1481,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
@@ -1493,7 +1560,7 @@
         <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1547,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="BC6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1675,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>-0.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF8" t="n">
         <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" t="n">
         <v>49</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.681</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
       </c>
       <c r="I9" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="J9" t="n">
-        <v>85</v>
+        <v>85.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L9" t="n">
         <v>6.4</v>
@@ -1970,28 +2037,28 @@
         <v>18.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O9" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P9" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.698</v>
+        <v>0.696</v>
       </c>
       <c r="R9" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="S9" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T9" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U9" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="V9" t="n">
         <v>15.3</v>
@@ -2006,16 +2073,16 @@
         <v>6.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA9" t="n">
         <v>21.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.7</v>
+        <v>105.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -2024,10 +2091,10 @@
         <v>4</v>
       </c>
       <c r="AF9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH9" t="n">
         <v>7</v>
@@ -2039,10 +2106,10 @@
         <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="n">
         <v>19</v>
@@ -2057,13 +2124,13 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR9" t="n">
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2093,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="BC9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -2200,10 +2267,10 @@
         <v>-4.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
         <v>26</v>
@@ -2218,10 +2285,10 @@
         <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2239,7 +2306,7 @@
         <v>14</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
         <v>31</v>
       </c>
       <c r="G11" t="n">
-        <v>0.569</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J11" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K11" t="n">
         <v>0.455</v>
@@ -2343,19 +2410,19 @@
         <v>21.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.791</v>
+        <v>0.792</v>
       </c>
       <c r="R11" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S11" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T11" t="n">
         <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V11" t="n">
         <v>15.3</v>
@@ -2370,22 +2437,22 @@
         <v>5</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>10</v>
@@ -2394,10 +2461,10 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
@@ -2421,7 +2488,7 @@
         <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
@@ -2442,22 +2509,22 @@
         <v>28</v>
       </c>
       <c r="AX11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
         <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
@@ -2576,7 +2643,7 @@
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2627,7 +2694,7 @@
         <v>28</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>15</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -2668,34 +2735,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="n">
         <v>27</v>
       </c>
       <c r="G13" t="n">
-        <v>0.62</v>
+        <v>0.614</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J13" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L13" t="n">
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N13" t="n">
         <v>0.356</v>
@@ -2704,7 +2771,7 @@
         <v>17.2</v>
       </c>
       <c r="P13" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q13" t="n">
         <v>0.75</v>
@@ -2719,10 +2786,10 @@
         <v>46.3</v>
       </c>
       <c r="U13" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V13" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
@@ -2740,13 +2807,13 @@
         <v>21.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2755,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
@@ -2767,7 +2834,7 @@
         <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
         <v>15</v>
@@ -2776,7 +2843,7 @@
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>25</v>
@@ -2812,7 +2879,7 @@
         <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
@@ -2821,7 +2888,7 @@
         <v>21</v>
       </c>
       <c r="BC13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2937,7 +3004,7 @@
         <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
@@ -2946,16 +3013,16 @@
         <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN14" t="n">
         <v>21</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" t="n">
         <v>36</v>
       </c>
       <c r="F15" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" t="n">
-        <v>0.507</v>
+        <v>0.514</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,40 +3117,40 @@
         <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M15" t="n">
         <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P15" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="Q15" t="n">
         <v>0.6889999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S15" t="n">
         <v>33.3</v>
       </c>
       <c r="T15" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U15" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V15" t="n">
         <v>15.1</v>
@@ -3107,10 +3174,10 @@
         <v>102.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>14</v>
@@ -3128,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3161,10 +3228,10 @@
         <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AW15" t="n">
         <v>24</v>
@@ -3176,7 +3243,7 @@
         <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="n">
         <v>47</v>
       </c>
       <c r="F16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>0.671</v>
+        <v>0.681</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,7 +3299,7 @@
         <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.443</v>
@@ -3253,13 +3320,13 @@
         <v>20.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="R16" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="S16" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T16" t="n">
         <v>42.8</v>
@@ -3277,40 +3344,40 @@
         <v>5.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB16" t="n">
         <v>93.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>6</v>
       </c>
       <c r="AF16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG16" t="n">
         <v>6</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
         <v>20</v>
@@ -3352,13 +3419,13 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
@@ -3420,13 +3487,13 @@
         <v>0.496</v>
       </c>
       <c r="L17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
       <c r="O17" t="n">
         <v>17.7</v>
@@ -3435,7 +3502,7 @@
         <v>23.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="R17" t="n">
         <v>8.300000000000001</v>
@@ -3447,10 +3514,10 @@
         <v>38.5</v>
       </c>
       <c r="U17" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V17" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W17" t="n">
         <v>8.9</v>
@@ -3459,22 +3526,22 @@
         <v>5.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z17" t="n">
         <v>18.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3498,10 +3565,10 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN17" t="n">
         <v>2</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -3656,16 +3723,16 @@
         <v>-1.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
         <v>15</v>
@@ -3677,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3908,7 @@
         <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
@@ -3856,10 +3923,10 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>28</v>
@@ -3889,10 +3956,10 @@
         <v>11</v>
       </c>
       <c r="AU19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>13</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -3942,37 +4009,37 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" t="n">
         <v>46</v>
       </c>
       <c r="G20" t="n">
-        <v>0.352</v>
+        <v>0.343</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J20" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.368</v>
+        <v>0.364</v>
       </c>
       <c r="O20" t="n">
         <v>14.9</v>
@@ -3981,25 +4048,25 @@
         <v>19.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R20" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
         <v>29.7</v>
       </c>
       <c r="T20" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U20" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V20" t="n">
         <v>14.4</v>
       </c>
       <c r="W20" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X20" t="n">
         <v>5.6</v>
@@ -4008,28 +4075,28 @@
         <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA20" t="n">
         <v>18.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.3</v>
+        <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
         <v>24</v>
       </c>
       <c r="AG20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
@@ -4038,10 +4105,10 @@
         <v>22</v>
       </c>
       <c r="AJ20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4050,13 +4117,13 @@
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4278,7 @@
         <v>7</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH21" t="n">
         <v>29</v>
@@ -4271,7 +4338,7 @@
         <v>13</v>
       </c>
       <c r="BA21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB21" t="n">
         <v>11</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" t="n">
         <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" t="n">
-        <v>0.254</v>
+        <v>0.257</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4515,10 +4582,10 @@
         <v>6.4</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O23" t="n">
         <v>12.3</v>
@@ -4527,7 +4594,7 @@
         <v>16.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.766</v>
+        <v>0.769</v>
       </c>
       <c r="R23" t="n">
         <v>10.5</v>
@@ -4551,7 +4618,7 @@
         <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z23" t="n">
         <v>19.5</v>
@@ -4563,10 +4630,10 @@
         <v>94.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.8</v>
+        <v>-6.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,19 +4645,19 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ23" t="n">
         <v>7</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
         <v>16</v>
@@ -4605,28 +4672,28 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT23" t="n">
         <v>15</v>
       </c>
       <c r="AU23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY23" t="n">
         <v>18</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -4670,58 +4737,58 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" t="n">
         <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" t="n">
-        <v>0.386</v>
+        <v>0.391</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J24" t="n">
         <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L24" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M24" t="n">
         <v>17.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O24" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="P24" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.72</v>
+        <v>0.718</v>
       </c>
       <c r="R24" t="n">
         <v>10.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T24" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="V24" t="n">
         <v>13.2</v>
@@ -4733,22 +4800,22 @@
         <v>4.9</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z24" t="n">
         <v>18.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="AB24" t="n">
         <v>92.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.9</v>
+        <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4769,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4799,7 +4866,7 @@
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
@@ -4969,7 +5036,7 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR25" t="n">
         <v>11</v>
@@ -4990,7 +5057,7 @@
         <v>15</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5124,7 +5191,7 @@
         <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>16</v>
@@ -5142,13 +5209,13 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
         <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ26" t="n">
         <v>7</v>
@@ -5181,7 +5248,7 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB26" t="n">
         <v>13</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>-5.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
@@ -5324,7 +5391,7 @@
         <v>12</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5488,19 +5555,19 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
@@ -5515,7 +5582,7 @@
         <v>18</v>
       </c>
       <c r="AQ28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5536,7 +5603,7 @@
         <v>4</v>
       </c>
       <c r="AX28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5673,10 +5740,10 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>22</v>
@@ -5721,7 +5788,7 @@
         <v>21</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -5762,37 +5829,37 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" t="n">
         <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.493</v>
+        <v>0.486</v>
       </c>
       <c r="H30" t="n">
         <v>48.6</v>
       </c>
       <c r="I30" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J30" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L30" t="n">
         <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="O30" t="n">
         <v>18.3</v>
@@ -5801,7 +5868,7 @@
         <v>23.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R30" t="n">
         <v>12.4</v>
@@ -5810,7 +5877,7 @@
         <v>30</v>
       </c>
       <c r="T30" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U30" t="n">
         <v>22.4</v>
@@ -5822,7 +5889,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y30" t="n">
         <v>6</v>
@@ -5831,16 +5898,16 @@
         <v>21.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
@@ -5849,10 +5916,10 @@
         <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI30" t="n">
         <v>17</v>
@@ -5864,7 +5931,7 @@
         <v>14</v>
       </c>
       <c r="AL30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM30" t="n">
         <v>28</v>
@@ -5879,7 +5946,7 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>7</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" t="n">
         <v>44</v>
       </c>
       <c r="G31" t="n">
-        <v>0.371</v>
+        <v>0.362</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5962,28 +6029,28 @@
         <v>35.6</v>
       </c>
       <c r="J31" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L31" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M31" t="n">
         <v>18.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O31" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="P31" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.735</v>
+        <v>0.737</v>
       </c>
       <c r="R31" t="n">
         <v>10.7</v>
@@ -5995,10 +6062,10 @@
         <v>43.2</v>
       </c>
       <c r="U31" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V31" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W31" t="n">
         <v>7.3</v>
@@ -6007,31 +6074,31 @@
         <v>4.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF31" t="n">
         <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH31" t="n">
         <v>8</v>
@@ -6040,10 +6107,10 @@
         <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AL31" t="n">
         <v>18</v>
@@ -6052,16 +6119,16 @@
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
         <v>23</v>
@@ -6073,13 +6140,13 @@
         <v>8</v>
       </c>
       <c r="AU31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV31" t="n">
         <v>27</v>
       </c>
       <c r="AW31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX31" t="n">
         <v>23</v>
@@ -6091,10 +6158,10 @@
         <v>21</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-25-2012-13</t>
+          <t>2013-03-25</t>
         </is>
       </c>
     </row>
